--- a/модуль организации деятельности/кубы.xlsx
+++ b/модуль организации деятельности/кубы.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaitsev_ad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaitsev_ad\PycharmProjects\ERKNM\модуль организации деятельности\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="ЕРКНМ" sheetId="1" r:id="rId1"/>
+    <sheet name="оценка эффективности" sheetId="3" r:id="rId2"/>
+    <sheet name="РХС" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>согласованные</t>
   </si>
@@ -63,6 +65,12 @@
   </si>
   <si>
     <t>ТУ/вид объекта/категория риска</t>
+  </si>
+  <si>
+    <t>ТУ/ОКВЭД/категория риска</t>
+  </si>
+  <si>
+    <t>ТУ</t>
   </si>
 </sst>
 </file>
@@ -79,13 +87,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -284,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -294,15 +308,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,6 +325,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,6 +342,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,101 +641,96 @@
     <col min="4" max="9" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -725,4 +740,49 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>